--- a/resucito/src/Cantos fuentes.xlsx
+++ b/resucito/src/Cantos fuentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\resucito\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFFB63B-6768-407B-8B1A-0B80A82DB4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE5DF98-8CF2-4769-9F0B-AB199C210873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{A65283A5-482C-4E94-9C9E-BC272A4B8360}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{A65283A5-482C-4E94-9C9E-BC272A4B8360}"/>
   </bookViews>
   <sheets>
     <sheet name="A la Cena del Cordero (2)" sheetId="3" r:id="rId1"/>
@@ -816,74 +816,74 @@
       <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.5" outlineLevelRow="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="24" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="61.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="3"/>
+    <col min="2" max="2" width="61.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="str">
         <f>_xlfn.CONCAT("const NOMBREDELCANTO = ","""",C12,"""",";")</f>
         <v>const NOMBREDELCANTO = "AMO AL SEÑOR";</v>
@@ -892,22 +892,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="str">
         <f>_xlfn.CONCAT("      salmo: ","""",C17,"""",";")</f>
         <v xml:space="preserve">      salmo: "Salmo 116 (114-115)";</v>
@@ -916,7 +916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="str">
         <f>_xlfn.CONCAT("      dbnos: ","""",C18,"""",";")</f>
         <v xml:space="preserve">      dbnos: "18";</v>
@@ -925,17 +925,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -947,7 +947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f>+A23+1</f>
         <v>2</v>
@@ -960,7 +960,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ref="A25:A48" si="0">+A24+1</f>
         <v>3</v>
@@ -973,7 +973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -986,7 +986,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -999,7 +999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1012,7 +1012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1025,7 +1025,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1038,7 +1038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1051,7 +1051,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1064,7 +1064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1077,7 +1077,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1090,7 +1090,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1103,7 +1103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1116,7 +1116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1129,7 +1129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1142,7 +1142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1155,7 +1155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1165,7 +1165,7 @@
         <v>/* 18 */        "",</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1175,7 +1175,7 @@
         <v>/* 19 */        "",</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1185,7 +1185,7 @@
         <v>/* 20 */        "",</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1195,7 +1195,7 @@
         <v>/* 21 */        "",</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1205,7 +1205,7 @@
         <v>/* 22 */        "",</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1215,7 +1215,7 @@
         <v>/* 23 */        "",</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1225,7 +1225,7 @@
         <v>/* 24 */        "",</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1235,7 +1235,7 @@
         <v>/* 25 */        "",</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1245,23 +1245,23 @@
         <v>/* 26 */        "",</v>
       </c>
     </row>
-    <row r="49" spans="1:17" collapsed="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B51" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E53" s="11"/>
       <c r="H53" s="10" t="s">
         <v>44</v>
@@ -1270,7 +1270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -1327,7 +1327,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f>+A54+1</f>
         <v>2</v>
@@ -1377,7 +1377,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ref="A56:A79" si="5">+A55+1</f>
         <v>3</v>
@@ -1433,7 +1433,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -1483,7 +1483,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -1533,7 +1533,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -1585,7 +1585,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -1641,7 +1641,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -1693,7 +1693,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -1743,7 +1743,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -1799,7 +1799,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -1847,7 +1847,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -1897,7 +1897,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -1955,7 +1955,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -2005,7 +2005,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -2057,7 +2057,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -2113,7 +2113,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -2165,7 +2165,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="71" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -2217,7 +2217,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="72" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -2269,7 +2269,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="73" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -2321,7 +2321,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="74" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -2373,7 +2373,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="75" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -2425,7 +2425,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="76" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -2477,7 +2477,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="77" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -2529,7 +2529,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="78" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -2581,7 +2581,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="79" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -2633,22 +2633,22 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B80" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B81" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B82" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <v>1</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <f>+A84+1</f>
         <v>2</v>
@@ -2673,7 +2673,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <f t="shared" ref="A86:A109" si="10">+A85+1</f>
         <v>3</v>
@@ -2686,7 +2686,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <f t="shared" si="10"/>
         <v>4</v>
@@ -2699,7 +2699,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -2712,7 +2712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -2725,7 +2725,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <f t="shared" si="10"/>
         <v>7</v>
@@ -2738,7 +2738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <f t="shared" si="10"/>
         <v>8</v>
@@ -2751,7 +2751,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <f t="shared" si="10"/>
         <v>9</v>
@@ -2764,7 +2764,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <f t="shared" si="10"/>
         <v>10</v>
@@ -2777,7 +2777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -2790,7 +2790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <f t="shared" si="10"/>
         <v>12</v>
@@ -2803,7 +2803,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <f t="shared" si="10"/>
         <v>13</v>
@@ -2813,7 +2813,7 @@
         <v>/* 13 */        "",</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <f t="shared" si="10"/>
         <v>14</v>
@@ -2823,7 +2823,7 @@
         <v>/* 14 */        "",</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -2833,7 +2833,7 @@
         <v>/* 15 */        "",</v>
       </c>
     </row>
-    <row r="99" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
         <f t="shared" si="10"/>
         <v>16</v>
@@ -2843,7 +2843,7 @@
         <v>/* 16 */        "",</v>
       </c>
     </row>
-    <row r="100" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
         <f t="shared" si="10"/>
         <v>17</v>
@@ -2853,7 +2853,7 @@
         <v>/* 17 */        "",</v>
       </c>
     </row>
-    <row r="101" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <f t="shared" si="10"/>
         <v>18</v>
@@ -2863,7 +2863,7 @@
         <v>/* 18 */        "",</v>
       </c>
     </row>
-    <row r="102" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
         <f t="shared" si="10"/>
         <v>19</v>
@@ -2873,7 +2873,7 @@
         <v>/* 19 */        "",</v>
       </c>
     </row>
-    <row r="103" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
         <f t="shared" si="10"/>
         <v>20</v>
@@ -2883,7 +2883,7 @@
         <v>/* 20 */        "",</v>
       </c>
     </row>
-    <row r="104" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
         <f t="shared" si="10"/>
         <v>21</v>
@@ -2893,7 +2893,7 @@
         <v>/* 21 */        "",</v>
       </c>
     </row>
-    <row r="105" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <f t="shared" si="10"/>
         <v>22</v>
@@ -2903,7 +2903,7 @@
         <v>/* 22 */        "",</v>
       </c>
     </row>
-    <row r="106" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <f t="shared" si="10"/>
         <v>23</v>
@@ -2913,7 +2913,7 @@
         <v>/* 23 */        "",</v>
       </c>
     </row>
-    <row r="107" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
         <f t="shared" si="10"/>
         <v>24</v>
@@ -2923,7 +2923,7 @@
         <v>/* 24 */        "",</v>
       </c>
     </row>
-    <row r="108" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
         <f t="shared" si="10"/>
         <v>25</v>
@@ -2933,7 +2933,7 @@
         <v>/* 25 */        "",</v>
       </c>
     </row>
-    <row r="109" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
         <f t="shared" si="10"/>
         <v>26</v>
@@ -2943,12 +2943,12 @@
         <v>/* 26 */        "",</v>
       </c>
     </row>
-    <row r="110" spans="1:23" collapsed="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:23" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B110" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B112" s="2" t="s">
         <v>56</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
         <v>1</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
         <f>+A113+1</f>
         <v>2</v>
@@ -3147,7 +3147,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
         <f t="shared" ref="A115:A138" si="19">+A114+1</f>
         <v>3</v>
@@ -3222,7 +3222,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
         <f t="shared" si="19"/>
         <v>4</v>
@@ -3295,7 +3295,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
         <f t="shared" si="19"/>
         <v>5</v>
@@ -3368,7 +3368,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
         <f t="shared" si="19"/>
         <v>6</v>
@@ -3443,7 +3443,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
         <f t="shared" si="19"/>
         <v>7</v>
@@ -3518,7 +3518,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
         <f t="shared" si="19"/>
         <v>8</v>
@@ -3601,7 +3601,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
         <f t="shared" si="19"/>
         <v>9</v>
@@ -3674,7 +3674,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -3747,7 +3747,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -3820,7 +3820,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -3895,7 +3895,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="125" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
         <f t="shared" si="19"/>
         <v>13</v>
@@ -3972,7 +3972,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="126" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
         <f t="shared" si="19"/>
         <v>14</v>
@@ -4041,7 +4041,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="127" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
         <f t="shared" si="19"/>
         <v>15</v>
@@ -4112,7 +4112,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="128" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A128" s="3">
         <f t="shared" si="19"/>
         <v>16</v>
@@ -4187,7 +4187,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="129" spans="1:24" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:24" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4">
         <f t="shared" si="19"/>
         <v>17</v>
@@ -4258,7 +4258,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="130" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
         <f t="shared" si="19"/>
         <v>18</v>
@@ -4329,7 +4329,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="131" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
         <f t="shared" si="19"/>
         <v>19</v>
@@ -4400,7 +4400,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="132" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
         <f t="shared" si="19"/>
         <v>20</v>
@@ -4471,7 +4471,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="133" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
         <f t="shared" si="19"/>
         <v>21</v>
@@ -4542,7 +4542,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="134" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
         <f t="shared" si="19"/>
         <v>22</v>
@@ -4613,7 +4613,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="135" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
         <f t="shared" si="19"/>
         <v>23</v>
@@ -4684,7 +4684,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="136" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
         <f t="shared" si="19"/>
         <v>24</v>
@@ -4755,7 +4755,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="137" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
         <f t="shared" si="19"/>
         <v>25</v>
@@ -4826,7 +4826,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="138" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
         <f t="shared" si="19"/>
         <v>26</v>
@@ -4897,27 +4897,27 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B140" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B141" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B142" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B143" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B144" s="2" t="s">
         <v>61</v>
       </c>
@@ -4939,74 +4939,74 @@
       <selection pane="bottomRight" activeCell="Q113" sqref="Q113:X113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.5" outlineLevelRow="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="24" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="61.6328125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="3"/>
+    <col min="2" max="2" width="61.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="str">
         <f>_xlfn.CONCAT("const NOMBREDELCANTO = ","""",C12,"""",";")</f>
         <v>const NOMBREDELCANTO = "AMO AL SEÑOR";</v>
@@ -5015,22 +5015,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="str">
         <f>_xlfn.CONCAT("      salmo: ","""",C17,"""",";")</f>
         <v xml:space="preserve">      salmo: "Salmo 116 (114-115)";</v>
@@ -5039,7 +5039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="str">
         <f>_xlfn.CONCAT("      dbnos: ","""",C18,"""",";")</f>
         <v xml:space="preserve">      dbnos: "18";</v>
@@ -5048,17 +5048,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -5070,7 +5070,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f>+A23+1</f>
         <v>2</v>
@@ -5083,7 +5083,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ref="A25:A48" si="0">+A24+1</f>
         <v>3</v>
@@ -5096,7 +5096,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5109,7 +5109,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5122,7 +5122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5135,7 +5135,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5148,7 +5148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5161,7 +5161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5174,7 +5174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5187,7 +5187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5200,7 +5200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5213,7 +5213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5226,7 +5226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5239,7 +5239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5252,7 +5252,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5265,7 +5265,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5278,7 +5278,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5288,7 +5288,7 @@
         <v>/* 18 */        "",</v>
       </c>
     </row>
-    <row r="41" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5298,7 +5298,7 @@
         <v>/* 19 */        "",</v>
       </c>
     </row>
-    <row r="42" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5308,7 +5308,7 @@
         <v>/* 20 */        "",</v>
       </c>
     </row>
-    <row r="43" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5318,7 +5318,7 @@
         <v>/* 21 */        "",</v>
       </c>
     </row>
-    <row r="44" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5328,7 +5328,7 @@
         <v>/* 22 */        "",</v>
       </c>
     </row>
-    <row r="45" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5338,7 +5338,7 @@
         <v>/* 23 */        "",</v>
       </c>
     </row>
-    <row r="46" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5348,7 +5348,7 @@
         <v>/* 24 */        "",</v>
       </c>
     </row>
-    <row r="47" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5358,7 +5358,7 @@
         <v>/* 25 */        "",</v>
       </c>
     </row>
-    <row r="48" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5368,23 +5368,23 @@
         <v>/* 26 */        "",</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B51" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="E53" s="11"/>
       <c r="H53" s="10" t="s">
         <v>44</v>
@@ -5393,7 +5393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f>+A54+1</f>
         <v>2</v>
@@ -5500,7 +5500,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" ref="A56:A79" si="5">+A55+1</f>
         <v>3</v>
@@ -5556,7 +5556,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -5606,7 +5606,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5656,7 +5656,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -5708,7 +5708,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -5764,7 +5764,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -5816,7 +5816,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -5866,7 +5866,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -5922,7 +5922,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -5970,7 +5970,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -6020,7 +6020,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -6078,7 +6078,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -6128,7 +6128,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -6180,7 +6180,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -6236,7 +6236,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -6288,7 +6288,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="71" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -6340,7 +6340,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="72" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -6392,7 +6392,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="73" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -6444,7 +6444,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="74" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -6496,7 +6496,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="75" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -6548,7 +6548,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="76" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -6600,7 +6600,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="77" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -6652,7 +6652,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="78" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -6704,7 +6704,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="79" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A79" s="3">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -6756,22 +6756,22 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B80" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B81" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B82" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <v>1</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <f>+A84+1</f>
         <v>2</v>
@@ -6796,7 +6796,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <f t="shared" ref="A86:A109" si="10">+A85+1</f>
         <v>3</v>
@@ -6809,7 +6809,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <f t="shared" si="10"/>
         <v>4</v>
@@ -6822,7 +6822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -6835,7 +6835,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -6848,7 +6848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <f t="shared" si="10"/>
         <v>7</v>
@@ -6861,7 +6861,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <f t="shared" si="10"/>
         <v>8</v>
@@ -6874,7 +6874,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <f t="shared" si="10"/>
         <v>9</v>
@@ -6887,7 +6887,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <f t="shared" si="10"/>
         <v>10</v>
@@ -6900,7 +6900,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -6913,7 +6913,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <f t="shared" si="10"/>
         <v>12</v>
@@ -6926,7 +6926,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <f t="shared" si="10"/>
         <v>13</v>
@@ -6936,7 +6936,7 @@
         <v>/* 13 */        "",</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <f t="shared" si="10"/>
         <v>14</v>
@@ -6946,7 +6946,7 @@
         <v>/* 14 */        "",</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -6956,7 +6956,7 @@
         <v>/* 15 */        "",</v>
       </c>
     </row>
-    <row r="99" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
         <f t="shared" si="10"/>
         <v>16</v>
@@ -6966,7 +6966,7 @@
         <v>/* 16 */        "",</v>
       </c>
     </row>
-    <row r="100" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
         <f t="shared" si="10"/>
         <v>17</v>
@@ -6976,7 +6976,7 @@
         <v>/* 17 */        "",</v>
       </c>
     </row>
-    <row r="101" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <f t="shared" si="10"/>
         <v>18</v>
@@ -6986,7 +6986,7 @@
         <v>/* 18 */        "",</v>
       </c>
     </row>
-    <row r="102" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
         <f t="shared" si="10"/>
         <v>19</v>
@@ -6996,7 +6996,7 @@
         <v>/* 19 */        "",</v>
       </c>
     </row>
-    <row r="103" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
         <f t="shared" si="10"/>
         <v>20</v>
@@ -7006,7 +7006,7 @@
         <v>/* 20 */        "",</v>
       </c>
     </row>
-    <row r="104" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
         <f t="shared" si="10"/>
         <v>21</v>
@@ -7016,7 +7016,7 @@
         <v>/* 21 */        "",</v>
       </c>
     </row>
-    <row r="105" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <f t="shared" si="10"/>
         <v>22</v>
@@ -7026,7 +7026,7 @@
         <v>/* 22 */        "",</v>
       </c>
     </row>
-    <row r="106" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <f t="shared" si="10"/>
         <v>23</v>
@@ -7036,7 +7036,7 @@
         <v>/* 23 */        "",</v>
       </c>
     </row>
-    <row r="107" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
         <f t="shared" si="10"/>
         <v>24</v>
@@ -7046,7 +7046,7 @@
         <v>/* 24 */        "",</v>
       </c>
     </row>
-    <row r="108" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
         <f t="shared" si="10"/>
         <v>25</v>
@@ -7056,7 +7056,7 @@
         <v>/* 25 */        "",</v>
       </c>
     </row>
-    <row r="109" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A109" s="3">
         <f t="shared" si="10"/>
         <v>26</v>
@@ -7066,12 +7066,12 @@
         <v>/* 26 */        "",</v>
       </c>
     </row>
-    <row r="110" spans="1:23" collapsed="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:23" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B110" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B112" s="2" t="s">
         <v>56</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
         <v>1</v>
       </c>
@@ -7195,7 +7195,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
         <f>+A113+1</f>
         <v>2</v>
@@ -7251,7 +7251,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
         <f t="shared" ref="A115:A138" si="16">+A114+1</f>
         <v>3</v>
@@ -7307,7 +7307,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
         <f t="shared" si="16"/>
         <v>4</v>
@@ -7361,7 +7361,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
         <f t="shared" si="16"/>
         <v>5</v>
@@ -7415,7 +7415,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
         <f t="shared" si="16"/>
         <v>6</v>
@@ -7471,7 +7471,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
         <f t="shared" si="16"/>
         <v>7</v>
@@ -7527,7 +7527,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
         <f t="shared" si="16"/>
         <v>8</v>
@@ -7585,7 +7585,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
         <f t="shared" si="16"/>
         <v>9</v>
@@ -7639,7 +7639,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
         <f t="shared" si="16"/>
         <v>10</v>
@@ -7693,7 +7693,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
         <f t="shared" si="16"/>
         <v>11</v>
@@ -7747,7 +7747,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
         <f t="shared" si="16"/>
         <v>12</v>
@@ -7801,7 +7801,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="125" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
         <f t="shared" si="16"/>
         <v>13</v>
@@ -7859,7 +7859,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="126" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
         <f t="shared" si="16"/>
         <v>14</v>
@@ -7909,7 +7909,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="127" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
         <f t="shared" si="16"/>
         <v>15</v>
@@ -7961,7 +7961,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="128" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A128" s="3">
         <f t="shared" si="16"/>
         <v>16</v>
@@ -8017,7 +8017,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="129" spans="1:17" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:17" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -8069,7 +8069,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
         <f t="shared" si="16"/>
         <v>18</v>
@@ -8121,7 +8121,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
         <f t="shared" si="16"/>
         <v>19</v>
@@ -8173,7 +8173,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
         <f t="shared" si="16"/>
         <v>20</v>
@@ -8225,7 +8225,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
         <f t="shared" si="16"/>
         <v>21</v>
@@ -8277,7 +8277,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
         <f t="shared" si="16"/>
         <v>22</v>
@@ -8329,7 +8329,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
         <f t="shared" si="16"/>
         <v>23</v>
@@ -8381,7 +8381,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
         <f t="shared" si="16"/>
         <v>24</v>
@@ -8433,7 +8433,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
         <f t="shared" si="16"/>
         <v>25</v>
@@ -8485,7 +8485,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="138" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A138" s="3">
         <f t="shared" si="16"/>
         <v>26</v>
@@ -8537,28 +8537,28 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="139" spans="1:17" collapsed="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:17" collapsed="1" x14ac:dyDescent="0.4"/>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B140" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B141" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B142" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B143" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B144" s="2" t="s">
         <v>61</v>
       </c>
@@ -8577,81 +8577,81 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.5" outlineLevelRow="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="24" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="3"/>
-    <col min="2" max="2" width="74.90625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.36328125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="3"/>
+    <col min="2" max="2" width="74.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.08984375" style="10" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" style="10" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.54296875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="18" customWidth="1"/>
     <col min="10" max="10" width="10" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.26953125" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="4.453125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="4.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.90625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.36328125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" style="21"/>
+    <col min="23" max="23" width="8.7109375" style="21"/>
     <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="str">
         <f>_xlfn.CONCAT("const NOMBREDELCANTO = ","""",C12,"""",";")</f>
         <v>const NOMBREDELCANTO = "A LA CENA DEL CORDERO";</v>
@@ -8660,22 +8660,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="str">
         <f>_xlfn.CONCAT("      salmo: ","""",C17,"""",",")</f>
         <v xml:space="preserve">      salmo: "Secuencia de Pascua - Himno lat. «Vlctlmae paschall laudes»",</v>
@@ -8684,7 +8684,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="str">
         <f>_xlfn.CONCAT("      dbnos: ","""",C18,"""",",")</f>
         <v xml:space="preserve">      dbnos: "18",</v>
@@ -8693,17 +8693,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -8715,7 +8715,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f>+A23+1</f>
         <v>2</v>
@@ -8728,7 +8728,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ref="A25:A48" si="0">+A24+1</f>
         <v>3</v>
@@ -8741,7 +8741,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8754,7 +8754,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8767,7 +8767,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8780,7 +8780,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8793,7 +8793,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8806,7 +8806,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8819,7 +8819,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8832,7 +8832,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8845,7 +8845,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8858,7 +8858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8871,7 +8871,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8884,7 +8884,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8897,7 +8897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8910,7 +8910,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8920,7 +8920,7 @@
         <v>/* 17 */        "",</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8930,7 +8930,7 @@
         <v>/* 18 */        "",</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8940,7 +8940,7 @@
         <v>/* 19 */        "",</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8950,7 +8950,7 @@
         <v>/* 20 */        "",</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8960,7 +8960,7 @@
         <v>/* 21 */        "",</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8970,7 +8970,7 @@
         <v>/* 22 */        "",</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8980,7 +8980,7 @@
         <v>/* 23 */        "",</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8990,7 +8990,7 @@
         <v>/* 24 */        "",</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9000,7 +9000,7 @@
         <v>/* 25 */        "",</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9010,23 +9010,23 @@
         <v>/* 26 */        "",</v>
       </c>
     </row>
-    <row r="49" spans="1:17" collapsed="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:17" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B51" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -9083,7 +9083,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <f>+A53+1</f>
         <v>2</v>
@@ -9131,7 +9131,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <f t="shared" ref="A55:A76" si="5">+A54+1</f>
         <v>3</v>
@@ -9183,7 +9183,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -9239,7 +9239,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -9295,7 +9295,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -9345,7 +9345,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A59" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -9403,7 +9403,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -9455,7 +9455,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -9511,7 +9511,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -9567,7 +9567,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -9619,7 +9619,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -9667,7 +9667,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -9723,7 +9723,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -9777,7 +9777,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -9831,7 +9831,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -9885,7 +9885,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:23" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -9938,7 +9938,7 @@
       </c>
       <c r="W69" s="22"/>
     </row>
-    <row r="70" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -9990,7 +9990,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="71" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -10042,7 +10042,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="72" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -10094,7 +10094,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="73" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A73" s="3">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -10146,7 +10146,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A74" s="3">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -10198,7 +10198,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A75" s="3">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -10250,7 +10250,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A76" s="3">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -10302,7 +10302,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A77" s="3">
         <f t="shared" ref="A77:A78" si="10">+A76+1</f>
         <v>25</v>
@@ -10354,7 +10354,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A78" s="3">
         <f t="shared" si="10"/>
         <v>26</v>
@@ -10406,22 +10406,22 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="79" spans="1:23" collapsed="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:23" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B79" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B80" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="B81" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <v>1</v>
       </c>
@@ -10433,7 +10433,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <f>+A83+1</f>
         <v>2</v>
@@ -10446,7 +10446,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <f t="shared" ref="A85:A108" si="11">+A84+1</f>
         <v>3</v>
@@ -10459,7 +10459,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -10472,7 +10472,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -10485,7 +10485,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="3">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -10498,7 +10498,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <f t="shared" si="11"/>
         <v>7</v>
@@ -10511,7 +10511,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <f t="shared" si="11"/>
         <v>8</v>
@@ -10524,7 +10524,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <f t="shared" si="11"/>
         <v>9</v>
@@ -10537,7 +10537,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <f t="shared" si="11"/>
         <v>10</v>
@@ -10550,7 +10550,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <f t="shared" si="11"/>
         <v>11</v>
@@ -10560,7 +10560,7 @@
         <v>/* 11 */        "",</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <f t="shared" si="11"/>
         <v>12</v>
@@ -10570,7 +10570,7 @@
         <v>/* 12 */        "",</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A95" s="3">
         <f t="shared" si="11"/>
         <v>13</v>
@@ -10580,7 +10580,7 @@
         <v>/* 13 */        "",</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <f t="shared" si="11"/>
         <v>14</v>
@@ -10590,7 +10590,7 @@
         <v>/* 14 */        "",</v>
       </c>
     </row>
-    <row r="97" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <f t="shared" si="11"/>
         <v>15</v>
@@ -10600,7 +10600,7 @@
         <v>/* 15 */        "",</v>
       </c>
     </row>
-    <row r="98" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
         <f t="shared" si="11"/>
         <v>16</v>
@@ -10610,7 +10610,7 @@
         <v>/* 16 */        "",</v>
       </c>
     </row>
-    <row r="99" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
         <f t="shared" si="11"/>
         <v>17</v>
@@ -10620,7 +10620,7 @@
         <v>/* 17 */        "",</v>
       </c>
     </row>
-    <row r="100" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A100" s="3">
         <f t="shared" si="11"/>
         <v>18</v>
@@ -10630,7 +10630,7 @@
         <v>/* 18 */        "",</v>
       </c>
     </row>
-    <row r="101" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A101" s="3">
         <f t="shared" si="11"/>
         <v>19</v>
@@ -10640,7 +10640,7 @@
         <v>/* 19 */        "",</v>
       </c>
     </row>
-    <row r="102" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A102" s="3">
         <f t="shared" si="11"/>
         <v>20</v>
@@ -10650,7 +10650,7 @@
         <v>/* 20 */        "",</v>
       </c>
     </row>
-    <row r="103" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A103" s="3">
         <f t="shared" si="11"/>
         <v>21</v>
@@ -10660,7 +10660,7 @@
         <v>/* 21 */        "",</v>
       </c>
     </row>
-    <row r="104" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A104" s="3">
         <f t="shared" si="11"/>
         <v>22</v>
@@ -10670,7 +10670,7 @@
         <v>/* 22 */        "",</v>
       </c>
     </row>
-    <row r="105" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A105" s="3">
         <f t="shared" si="11"/>
         <v>23</v>
@@ -10680,7 +10680,7 @@
         <v>/* 23 */        "",</v>
       </c>
     </row>
-    <row r="106" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A106" s="3">
         <f t="shared" si="11"/>
         <v>24</v>
@@ -10690,7 +10690,7 @@
         <v>/* 24 */        "",</v>
       </c>
     </row>
-    <row r="107" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A107" s="3">
         <f t="shared" si="11"/>
         <v>25</v>
@@ -10700,7 +10700,7 @@
         <v>/* 25 */        "",</v>
       </c>
     </row>
-    <row r="108" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A108" s="3">
         <f t="shared" si="11"/>
         <v>26</v>
@@ -10710,12 +10710,12 @@
         <v>/* 26 */        "",</v>
       </c>
     </row>
-    <row r="109" spans="1:24" collapsed="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:24" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B109" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B111" s="2" t="s">
         <v>56</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A112" s="3">
         <v>1</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A113" s="3">
         <f>+A112+1</f>
         <v>2</v>
@@ -10894,7 +10894,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A114" s="3">
         <f t="shared" ref="A114:A137" si="20">+A113+1</f>
         <v>3</v>
@@ -10967,7 +10967,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A115" s="3">
         <f t="shared" si="20"/>
         <v>4</v>
@@ -11040,7 +11040,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A116" s="3">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -11115,7 +11115,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A117" s="3">
         <f t="shared" si="20"/>
         <v>6</v>
@@ -11194,7 +11194,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A118" s="3">
         <f t="shared" si="20"/>
         <v>7</v>
@@ -11269,7 +11269,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A119" s="3">
         <f t="shared" si="20"/>
         <v>8</v>
@@ -11342,7 +11342,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A120" s="3">
         <f t="shared" si="20"/>
         <v>9</v>
@@ -11415,7 +11415,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A121" s="3">
         <f t="shared" si="20"/>
         <v>10</v>
@@ -11488,7 +11488,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="122" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A122" s="3">
         <f t="shared" si="20"/>
         <v>11</v>
@@ -11561,7 +11561,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="123" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A123" s="3">
         <f t="shared" si="20"/>
         <v>12</v>
@@ -11636,7 +11636,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="124" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A124" s="3">
         <f t="shared" si="20"/>
         <v>13</v>
@@ -11713,7 +11713,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="125" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A125" s="3">
         <f t="shared" si="20"/>
         <v>14</v>
@@ -11782,7 +11782,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="126" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A126" s="3">
         <f t="shared" si="20"/>
         <v>15</v>
@@ -11853,7 +11853,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="127" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A127" s="3">
         <f t="shared" si="20"/>
         <v>16</v>
@@ -11928,7 +11928,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="128" spans="1:24" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:24" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4">
         <f t="shared" si="20"/>
         <v>17</v>
@@ -11999,7 +11999,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="129" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A129" s="3">
         <f t="shared" si="20"/>
         <v>18</v>
@@ -12070,7 +12070,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="130" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A130" s="3">
         <f t="shared" si="20"/>
         <v>19</v>
@@ -12141,7 +12141,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="131" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A131" s="3">
         <f t="shared" si="20"/>
         <v>20</v>
@@ -12212,7 +12212,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="132" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A132" s="3">
         <f t="shared" si="20"/>
         <v>21</v>
@@ -12283,7 +12283,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="133" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A133" s="3">
         <f t="shared" si="20"/>
         <v>22</v>
@@ -12354,7 +12354,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="134" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A134" s="3">
         <f t="shared" si="20"/>
         <v>23</v>
@@ -12425,7 +12425,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="135" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A135" s="3">
         <f t="shared" si="20"/>
         <v>24</v>
@@ -12496,7 +12496,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="136" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A136" s="3">
         <f t="shared" si="20"/>
         <v>25</v>
@@ -12567,7 +12567,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="137" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
       <c r="A137" s="3">
         <f t="shared" si="20"/>
         <v>26</v>
@@ -12638,27 +12638,27 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="138" spans="1:24" collapsed="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:24" collapsed="1" x14ac:dyDescent="0.4">
       <c r="B138" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B139" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B140" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B141" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.4">
       <c r="B142" s="2" t="s">
         <v>61</v>
       </c>

--- a/resucito/src/Cantos fuentes.xlsx
+++ b/resucito/src/Cantos fuentes.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Github\cantos\resucito\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE5DF98-8CF2-4769-9F0B-AB199C210873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34CA9AA8-86A8-4EFB-AFDA-422EAB21FE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="51840" windowHeight="21120" activeTab="2" xr2:uid="{A65283A5-482C-4E94-9C9E-BC272A4B8360}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="3" xr2:uid="{A65283A5-482C-4E94-9C9E-BC272A4B8360}"/>
   </bookViews>
   <sheets>
     <sheet name="A la Cena del Cordero (2)" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
     <sheet name="A la Cena del Cordero" sheetId="1" r:id="rId3"/>
+    <sheet name="A LA VÍCTIMA PASCUAL" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="92">
   <si>
     <t>  }</t>
   </si>
@@ -490,6 +491,104 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>273050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3837465</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>273049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8362F0C3-BF43-47F1-C463-65829CD458A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4946651" y="13106400"/>
+          <a:ext cx="3799364" cy="596899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3140504</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>44567</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E1FF6CF-2EB2-EB22-0D0C-DBE46D42146E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972050" y="12934950"/>
+          <a:ext cx="3077004" cy="838317"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -809,81 +908,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13575D7E-AAF2-4B74-B399-067DDF8609B1}">
   <dimension ref="A1:X144"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="23.5" outlineLevelRow="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="3"/>
-    <col min="2" max="2" width="61.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="61.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1" t="str">
         <f>_xlfn.CONCAT("const NOMBREDELCANTO = ","""",C12,"""",";")</f>
         <v>const NOMBREDELCANTO = "AMO AL SEÑOR";</v>
@@ -892,22 +991,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="str">
         <f>_xlfn.CONCAT("      salmo: ","""",C17,"""",";")</f>
         <v xml:space="preserve">      salmo: "Salmo 116 (114-115)";</v>
@@ -916,7 +1015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2" t="str">
         <f>_xlfn.CONCAT("      dbnos: ","""",C18,"""",";")</f>
         <v xml:space="preserve">      dbnos: "18";</v>
@@ -925,17 +1024,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -947,7 +1046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
         <f>+A23+1</f>
         <v>2</v>
@@ -960,7 +1059,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <f t="shared" ref="A25:A48" si="0">+A24+1</f>
         <v>3</v>
@@ -973,7 +1072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -986,7 +1085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -999,7 +1098,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1012,7 +1111,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1025,7 +1124,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1038,7 +1137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1051,7 +1150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1064,7 +1163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1077,7 +1176,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1090,7 +1189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1103,7 +1202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1116,7 +1215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1129,7 +1228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1142,7 +1241,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1155,7 +1254,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1165,7 +1264,7 @@
         <v>/* 18 */        "",</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1175,7 +1274,7 @@
         <v>/* 19 */        "",</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1185,7 +1284,7 @@
         <v>/* 20 */        "",</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1195,7 +1294,7 @@
         <v>/* 21 */        "",</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1205,7 +1304,7 @@
         <v>/* 22 */        "",</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1215,7 +1314,7 @@
         <v>/* 23 */        "",</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1225,7 +1324,7 @@
         <v>/* 24 */        "",</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1235,7 +1334,7 @@
         <v>/* 25 */        "",</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1245,23 +1344,23 @@
         <v>/* 26 */        "",</v>
       </c>
     </row>
-    <row r="49" spans="1:17" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" collapsed="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="E53" s="11"/>
       <c r="H53" s="10" t="s">
         <v>44</v>
@@ -1270,20 +1369,20 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3">
         <v>1</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>_xlfn.CONCAT("/* ",A54,"*/      ",D54:Q54)</f>
-        <v>/* 1*/      [ac("Re", "cp1","m"), ac("Fa#","cp55","m")],</v>
+        <v>/* 1*/      [ac("La", "cp1","m"), ac("La","cp43","7")],</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="9" t="s">
         <v>40</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>43</v>
@@ -1302,7 +1401,7 @@
         <v>"), ac("</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="L54" s="7" t="str">
         <f>IF(K54="","",""",""")</f>
@@ -1313,21 +1412,21 @@
         <v>cp</v>
       </c>
       <c r="N54" s="15">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="O54" s="7" t="str">
         <f>IF(K54="","",""",""")</f>
         <v>","</v>
       </c>
-      <c r="P54" s="15" t="s">
-        <v>35</v>
+      <c r="P54" s="15">
+        <v>7</v>
       </c>
       <c r="Q54" s="7" t="str">
         <f>IF(K54="",")],",""")],")</f>
         <v>")],</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3">
         <f>+A54+1</f>
         <v>2</v>
@@ -1377,7 +1476,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3">
         <f t="shared" ref="A56:A79" si="5">+A55+1</f>
         <v>3</v>
@@ -1433,7 +1532,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -1483,7 +1582,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -1533,7 +1632,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -1585,7 +1684,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -1641,7 +1740,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -1693,7 +1792,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -1743,7 +1842,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -1799,7 +1898,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -1847,7 +1946,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -1897,7 +1996,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -1955,7 +2054,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -2005,7 +2104,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -2057,7 +2156,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -2113,7 +2212,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -2165,7 +2264,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="71" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -2217,7 +2316,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="72" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -2269,7 +2368,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="73" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -2321,7 +2420,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="74" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -2373,7 +2472,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="75" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -2425,7 +2524,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="76" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -2477,7 +2576,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="77" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -2529,7 +2628,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="78" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -2581,7 +2680,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="79" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -2633,22 +2732,22 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3">
         <v>1</v>
       </c>
@@ -2660,7 +2759,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3">
         <f>+A84+1</f>
         <v>2</v>
@@ -2673,7 +2772,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3">
         <f t="shared" ref="A86:A109" si="10">+A85+1</f>
         <v>3</v>
@@ -2686,7 +2785,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3">
         <f t="shared" si="10"/>
         <v>4</v>
@@ -2699,7 +2798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -2712,7 +2811,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -2725,7 +2824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3">
         <f t="shared" si="10"/>
         <v>7</v>
@@ -2738,7 +2837,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3">
         <f t="shared" si="10"/>
         <v>8</v>
@@ -2751,7 +2850,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3">
         <f t="shared" si="10"/>
         <v>9</v>
@@ -2764,7 +2863,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3">
         <f t="shared" si="10"/>
         <v>10</v>
@@ -2777,7 +2876,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -2790,7 +2889,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3">
         <f t="shared" si="10"/>
         <v>12</v>
@@ -2803,7 +2902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3">
         <f t="shared" si="10"/>
         <v>13</v>
@@ -2813,7 +2912,7 @@
         <v>/* 13 */        "",</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3">
         <f t="shared" si="10"/>
         <v>14</v>
@@ -2823,7 +2922,7 @@
         <v>/* 14 */        "",</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -2833,7 +2932,7 @@
         <v>/* 15 */        "",</v>
       </c>
     </row>
-    <row r="99" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3">
         <f t="shared" si="10"/>
         <v>16</v>
@@ -2843,7 +2942,7 @@
         <v>/* 16 */        "",</v>
       </c>
     </row>
-    <row r="100" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3">
         <f t="shared" si="10"/>
         <v>17</v>
@@ -2853,7 +2952,7 @@
         <v>/* 17 */        "",</v>
       </c>
     </row>
-    <row r="101" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3">
         <f t="shared" si="10"/>
         <v>18</v>
@@ -2863,7 +2962,7 @@
         <v>/* 18 */        "",</v>
       </c>
     </row>
-    <row r="102" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3">
         <f t="shared" si="10"/>
         <v>19</v>
@@ -2873,7 +2972,7 @@
         <v>/* 19 */        "",</v>
       </c>
     </row>
-    <row r="103" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3">
         <f t="shared" si="10"/>
         <v>20</v>
@@ -2883,7 +2982,7 @@
         <v>/* 20 */        "",</v>
       </c>
     </row>
-    <row r="104" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3">
         <f t="shared" si="10"/>
         <v>21</v>
@@ -2893,7 +2992,7 @@
         <v>/* 21 */        "",</v>
       </c>
     </row>
-    <row r="105" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3">
         <f t="shared" si="10"/>
         <v>22</v>
@@ -2903,7 +3002,7 @@
         <v>/* 22 */        "",</v>
       </c>
     </row>
-    <row r="106" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3">
         <f t="shared" si="10"/>
         <v>23</v>
@@ -2913,7 +3012,7 @@
         <v>/* 23 */        "",</v>
       </c>
     </row>
-    <row r="107" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3">
         <f t="shared" si="10"/>
         <v>24</v>
@@ -2923,7 +3022,7 @@
         <v>/* 24 */        "",</v>
       </c>
     </row>
-    <row r="108" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3">
         <f t="shared" si="10"/>
         <v>25</v>
@@ -2933,7 +3032,7 @@
         <v>/* 25 */        "",</v>
       </c>
     </row>
-    <row r="109" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3">
         <f t="shared" si="10"/>
         <v>26</v>
@@ -2943,12 +3042,12 @@
         <v>/* 26 */        "",</v>
       </c>
     </row>
-    <row r="110" spans="1:23" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:23" collapsed="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="2" t="s">
         <v>56</v>
       </c>
@@ -2990,7 +3089,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="3">
         <v>1</v>
       </c>
@@ -3066,7 +3165,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="3">
         <f>+A113+1</f>
         <v>2</v>
@@ -3147,7 +3246,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="3">
         <f t="shared" ref="A115:A138" si="19">+A114+1</f>
         <v>3</v>
@@ -3222,7 +3321,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="3">
         <f t="shared" si="19"/>
         <v>4</v>
@@ -3295,7 +3394,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="3">
         <f t="shared" si="19"/>
         <v>5</v>
@@ -3368,7 +3467,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="3">
         <f t="shared" si="19"/>
         <v>6</v>
@@ -3443,7 +3542,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="3">
         <f t="shared" si="19"/>
         <v>7</v>
@@ -3518,7 +3617,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="3">
         <f t="shared" si="19"/>
         <v>8</v>
@@ -3601,7 +3700,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3">
         <f t="shared" si="19"/>
         <v>9</v>
@@ -3674,7 +3773,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3">
         <f t="shared" si="19"/>
         <v>10</v>
@@ -3747,7 +3846,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3">
         <f t="shared" si="19"/>
         <v>11</v>
@@ -3820,7 +3919,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="3">
         <f t="shared" si="19"/>
         <v>12</v>
@@ -3895,7 +3994,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="125" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="3">
         <f t="shared" si="19"/>
         <v>13</v>
@@ -3972,7 +4071,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="126" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="3">
         <f t="shared" si="19"/>
         <v>14</v>
@@ -4041,7 +4140,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="127" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="3">
         <f t="shared" si="19"/>
         <v>15</v>
@@ -4112,7 +4211,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="128" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="3">
         <f t="shared" si="19"/>
         <v>16</v>
@@ -4187,7 +4286,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="129" spans="1:24" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:24" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="4">
         <f t="shared" si="19"/>
         <v>17</v>
@@ -4258,7 +4357,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="130" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="3">
         <f t="shared" si="19"/>
         <v>18</v>
@@ -4329,7 +4428,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="131" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="3">
         <f t="shared" si="19"/>
         <v>19</v>
@@ -4400,7 +4499,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="132" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="3">
         <f t="shared" si="19"/>
         <v>20</v>
@@ -4471,7 +4570,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="133" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="3">
         <f t="shared" si="19"/>
         <v>21</v>
@@ -4542,7 +4641,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="134" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="3">
         <f t="shared" si="19"/>
         <v>22</v>
@@ -4613,7 +4712,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="135" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="3">
         <f t="shared" si="19"/>
         <v>23</v>
@@ -4684,7 +4783,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="136" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="3">
         <f t="shared" si="19"/>
         <v>24</v>
@@ -4755,7 +4854,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="137" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="3">
         <f t="shared" si="19"/>
         <v>25</v>
@@ -4826,7 +4925,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="138" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3">
         <f t="shared" si="19"/>
         <v>26</v>
@@ -4897,27 +4996,27 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="2" t="s">
         <v>61</v>
       </c>
@@ -4925,6 +5024,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4933,80 +5033,80 @@
   <dimension ref="A1:X144"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Q113" sqref="Q113:X113"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="23.5" outlineLevelRow="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="3"/>
-    <col min="2" max="2" width="61.5703125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="61.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1" t="str">
         <f>_xlfn.CONCAT("const NOMBREDELCANTO = ","""",C12,"""",";")</f>
         <v>const NOMBREDELCANTO = "AMO AL SEÑOR";</v>
@@ -5015,22 +5115,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="str">
         <f>_xlfn.CONCAT("      salmo: ","""",C17,"""",";")</f>
         <v xml:space="preserve">      salmo: "Salmo 116 (114-115)";</v>
@@ -5039,7 +5139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2" t="str">
         <f>_xlfn.CONCAT("      dbnos: ","""",C18,"""",";")</f>
         <v xml:space="preserve">      dbnos: "18";</v>
@@ -5048,17 +5148,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -5070,7 +5170,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
         <f>+A23+1</f>
         <v>2</v>
@@ -5083,7 +5183,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <f t="shared" ref="A25:A48" si="0">+A24+1</f>
         <v>3</v>
@@ -5096,7 +5196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -5109,7 +5209,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -5122,7 +5222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -5135,7 +5235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5148,7 +5248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5161,7 +5261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5174,7 +5274,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5187,7 +5287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5200,7 +5300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5213,7 +5313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5226,7 +5326,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5239,7 +5339,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5252,7 +5352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5265,7 +5365,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5278,7 +5378,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5288,7 +5388,7 @@
         <v>/* 18 */        "",</v>
       </c>
     </row>
-    <row r="41" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5298,7 +5398,7 @@
         <v>/* 19 */        "",</v>
       </c>
     </row>
-    <row r="42" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5308,7 +5408,7 @@
         <v>/* 20 */        "",</v>
       </c>
     </row>
-    <row r="43" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5318,7 +5418,7 @@
         <v>/* 21 */        "",</v>
       </c>
     </row>
-    <row r="44" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5328,7 +5428,7 @@
         <v>/* 22 */        "",</v>
       </c>
     </row>
-    <row r="45" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -5338,7 +5438,7 @@
         <v>/* 23 */        "",</v>
       </c>
     </row>
-    <row r="46" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -5348,7 +5448,7 @@
         <v>/* 24 */        "",</v>
       </c>
     </row>
-    <row r="47" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -5358,7 +5458,7 @@
         <v>/* 25 */        "",</v>
       </c>
     </row>
-    <row r="48" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -5368,23 +5468,23 @@
         <v>/* 26 */        "",</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="E53" s="11"/>
       <c r="H53" s="10" t="s">
         <v>44</v>
@@ -5393,7 +5493,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -5450,7 +5550,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3">
         <f>+A54+1</f>
         <v>2</v>
@@ -5500,7 +5600,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3">
         <f t="shared" ref="A56:A79" si="5">+A55+1</f>
         <v>3</v>
@@ -5556,7 +5656,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -5606,7 +5706,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -5656,7 +5756,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -5708,7 +5808,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -5764,7 +5864,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -5816,7 +5916,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -5866,7 +5966,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -5922,7 +6022,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -5970,7 +6070,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -6020,7 +6120,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -6078,7 +6178,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -6128,7 +6228,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -6180,7 +6280,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="3">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -6236,7 +6336,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="70" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -6288,7 +6388,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="71" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -6340,7 +6440,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="72" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -6392,7 +6492,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="73" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -6444,7 +6544,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="74" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -6496,7 +6596,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="75" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -6548,7 +6648,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="76" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -6600,7 +6700,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="77" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -6652,7 +6752,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="78" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3">
         <f t="shared" si="5"/>
         <v>25</v>
@@ -6704,7 +6804,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="79" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="3">
         <f t="shared" si="5"/>
         <v>26</v>
@@ -6756,22 +6856,22 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3">
         <v>1</v>
       </c>
@@ -6783,7 +6883,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3">
         <f>+A84+1</f>
         <v>2</v>
@@ -6796,7 +6896,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3">
         <f t="shared" ref="A86:A109" si="10">+A85+1</f>
         <v>3</v>
@@ -6809,7 +6909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3">
         <f t="shared" si="10"/>
         <v>4</v>
@@ -6822,7 +6922,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3">
         <f t="shared" si="10"/>
         <v>5</v>
@@ -6835,7 +6935,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3">
         <f t="shared" si="10"/>
         <v>6</v>
@@ -6848,7 +6948,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3">
         <f t="shared" si="10"/>
         <v>7</v>
@@ -6861,7 +6961,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3">
         <f t="shared" si="10"/>
         <v>8</v>
@@ -6874,7 +6974,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3">
         <f t="shared" si="10"/>
         <v>9</v>
@@ -6887,7 +6987,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3">
         <f t="shared" si="10"/>
         <v>10</v>
@@ -6900,7 +7000,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3">
         <f t="shared" si="10"/>
         <v>11</v>
@@ -6913,7 +7013,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3">
         <f t="shared" si="10"/>
         <v>12</v>
@@ -6926,7 +7026,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3">
         <f t="shared" si="10"/>
         <v>13</v>
@@ -6936,7 +7036,7 @@
         <v>/* 13 */        "",</v>
       </c>
     </row>
-    <row r="97" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3">
         <f t="shared" si="10"/>
         <v>14</v>
@@ -6946,7 +7046,7 @@
         <v>/* 14 */        "",</v>
       </c>
     </row>
-    <row r="98" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3">
         <f t="shared" si="10"/>
         <v>15</v>
@@ -6956,7 +7056,7 @@
         <v>/* 15 */        "",</v>
       </c>
     </row>
-    <row r="99" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3">
         <f t="shared" si="10"/>
         <v>16</v>
@@ -6966,7 +7066,7 @@
         <v>/* 16 */        "",</v>
       </c>
     </row>
-    <row r="100" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3">
         <f t="shared" si="10"/>
         <v>17</v>
@@ -6976,7 +7076,7 @@
         <v>/* 17 */        "",</v>
       </c>
     </row>
-    <row r="101" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3">
         <f t="shared" si="10"/>
         <v>18</v>
@@ -6986,7 +7086,7 @@
         <v>/* 18 */        "",</v>
       </c>
     </row>
-    <row r="102" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3">
         <f t="shared" si="10"/>
         <v>19</v>
@@ -6996,7 +7096,7 @@
         <v>/* 19 */        "",</v>
       </c>
     </row>
-    <row r="103" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3">
         <f t="shared" si="10"/>
         <v>20</v>
@@ -7006,7 +7106,7 @@
         <v>/* 20 */        "",</v>
       </c>
     </row>
-    <row r="104" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3">
         <f t="shared" si="10"/>
         <v>21</v>
@@ -7016,7 +7116,7 @@
         <v>/* 21 */        "",</v>
       </c>
     </row>
-    <row r="105" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3">
         <f t="shared" si="10"/>
         <v>22</v>
@@ -7026,7 +7126,7 @@
         <v>/* 22 */        "",</v>
       </c>
     </row>
-    <row r="106" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3">
         <f t="shared" si="10"/>
         <v>23</v>
@@ -7036,7 +7136,7 @@
         <v>/* 23 */        "",</v>
       </c>
     </row>
-    <row r="107" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3">
         <f t="shared" si="10"/>
         <v>24</v>
@@ -7046,7 +7146,7 @@
         <v>/* 24 */        "",</v>
       </c>
     </row>
-    <row r="108" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3">
         <f t="shared" si="10"/>
         <v>25</v>
@@ -7056,7 +7156,7 @@
         <v>/* 25 */        "",</v>
       </c>
     </row>
-    <row r="109" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="3">
         <f t="shared" si="10"/>
         <v>26</v>
@@ -7066,12 +7166,12 @@
         <v>/* 26 */        "",</v>
       </c>
     </row>
-    <row r="110" spans="1:23" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:23" collapsed="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="2" t="s">
         <v>56</v>
       </c>
@@ -7113,7 +7213,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="3">
         <v>1</v>
       </c>
@@ -7195,7 +7295,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="3">
         <f>+A113+1</f>
         <v>2</v>
@@ -7251,7 +7351,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="3">
         <f t="shared" ref="A115:A138" si="16">+A114+1</f>
         <v>3</v>
@@ -7307,7 +7407,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="3">
         <f t="shared" si="16"/>
         <v>4</v>
@@ -7361,7 +7461,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="3">
         <f t="shared" si="16"/>
         <v>5</v>
@@ -7415,7 +7515,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="3">
         <f t="shared" si="16"/>
         <v>6</v>
@@ -7471,7 +7571,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="3">
         <f t="shared" si="16"/>
         <v>7</v>
@@ -7527,7 +7627,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="3">
         <f t="shared" si="16"/>
         <v>8</v>
@@ -7585,7 +7685,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3">
         <f t="shared" si="16"/>
         <v>9</v>
@@ -7639,7 +7739,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3">
         <f t="shared" si="16"/>
         <v>10</v>
@@ -7693,7 +7793,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3">
         <f t="shared" si="16"/>
         <v>11</v>
@@ -7747,7 +7847,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="3">
         <f t="shared" si="16"/>
         <v>12</v>
@@ -7801,7 +7901,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="125" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="3">
         <f t="shared" si="16"/>
         <v>13</v>
@@ -7859,7 +7959,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="126" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="3">
         <f t="shared" si="16"/>
         <v>14</v>
@@ -7909,7 +8009,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="127" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="3">
         <f t="shared" si="16"/>
         <v>15</v>
@@ -7961,7 +8061,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="128" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="3">
         <f t="shared" si="16"/>
         <v>16</v>
@@ -8017,7 +8117,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="129" spans="1:17" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:17" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="4">
         <f t="shared" si="16"/>
         <v>17</v>
@@ -8069,7 +8169,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="130" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="3">
         <f t="shared" si="16"/>
         <v>18</v>
@@ -8121,7 +8221,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="131" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="3">
         <f t="shared" si="16"/>
         <v>19</v>
@@ -8173,7 +8273,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="132" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="3">
         <f t="shared" si="16"/>
         <v>20</v>
@@ -8225,7 +8325,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="133" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="3">
         <f t="shared" si="16"/>
         <v>21</v>
@@ -8277,7 +8377,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="134" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="3">
         <f t="shared" si="16"/>
         <v>22</v>
@@ -8329,7 +8429,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="135" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="3">
         <f t="shared" si="16"/>
         <v>23</v>
@@ -8381,7 +8481,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="136" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="3">
         <f t="shared" si="16"/>
         <v>24</v>
@@ -8433,7 +8533,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="137" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="3">
         <f t="shared" si="16"/>
         <v>25</v>
@@ -8485,7 +8585,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="138" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:17" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3">
         <f t="shared" si="16"/>
         <v>26</v>
@@ -8537,28 +8637,28 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="139" spans="1:17" collapsed="1" x14ac:dyDescent="0.4"/>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:17" collapsed="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="2" t="s">
         <v>61</v>
       </c>
@@ -8573,85 +8673,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A02B12B-9978-4A5A-A4D8-D173C051B1D9}">
   <dimension ref="A1:X142"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomRight" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="24" outlineLevelRow="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="23.5" outlineLevelRow="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="3"/>
-    <col min="2" max="2" width="74.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="74.81640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="10" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="10" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="10" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="10" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.54296875" style="18" customWidth="1"/>
     <col min="10" max="10" width="10" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="4.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.26953125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="4.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" style="10" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10" hidden="1" customWidth="1"/>
     <col min="19" max="20" width="0" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" style="21"/>
+    <col min="23" max="23" width="8.7265625" style="21"/>
     <col min="24" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="1" t="str">
         <f>_xlfn.CONCAT("const NOMBREDELCANTO = ","""",C12,"""",";")</f>
         <v>const NOMBREDELCANTO = "A LA CENA DEL CORDERO";</v>
@@ -8660,22 +8760,22 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="str">
         <f>_xlfn.CONCAT("      salmo: ","""",C17,"""",",")</f>
         <v xml:space="preserve">      salmo: "Secuencia de Pascua - Himno lat. «Vlctlmae paschall laudes»",</v>
@@ -8684,7 +8784,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2" t="str">
         <f>_xlfn.CONCAT("      dbnos: ","""",C18,"""",",")</f>
         <v xml:space="preserve">      dbnos: "18",</v>
@@ -8693,17 +8793,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -8715,7 +8815,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
         <f>+A23+1</f>
         <v>2</v>
@@ -8728,7 +8828,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
         <f t="shared" ref="A25:A48" si="0">+A24+1</f>
         <v>3</v>
@@ -8741,7 +8841,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -8754,7 +8854,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -8767,7 +8867,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -8780,7 +8880,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -8793,7 +8893,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -8806,7 +8906,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -8819,7 +8919,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -8832,7 +8932,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -8845,7 +8945,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -8858,7 +8958,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -8871,7 +8971,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -8884,7 +8984,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -8897,7 +8997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -8910,7 +9010,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -8920,7 +9020,7 @@
         <v>/* 17 */        "",</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -8930,7 +9030,7 @@
         <v>/* 18 */        "",</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -8940,7 +9040,7 @@
         <v>/* 19 */        "",</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -8950,7 +9050,7 @@
         <v>/* 20 */        "",</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -8960,7 +9060,7 @@
         <v>/* 21 */        "",</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -8970,7 +9070,7 @@
         <v>/* 22 */        "",</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -8980,7 +9080,7 @@
         <v>/* 23 */        "",</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -8990,7 +9090,7 @@
         <v>/* 24 */        "",</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -9000,7 +9100,7 @@
         <v>/* 25 */        "",</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -9010,23 +9110,23 @@
         <v>/* 26 */        "",</v>
       </c>
     </row>
-    <row r="49" spans="1:17" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17" collapsed="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="2" t="s">
         <v>32</v>
       </c>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -9083,7 +9183,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="3">
         <f>+A53+1</f>
         <v>2</v>
@@ -9131,7 +9231,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="3">
         <f t="shared" ref="A55:A76" si="5">+A54+1</f>
         <v>3</v>
@@ -9183,7 +9283,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="3">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -9239,7 +9339,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="3">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -9295,7 +9395,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="3">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -9345,7 +9445,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -9403,7 +9503,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="3">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -9455,7 +9555,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="3">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -9511,7 +9611,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
@@ -9567,7 +9667,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="3">
         <f t="shared" si="5"/>
         <v>11</v>
@@ -9619,7 +9719,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
@@ -9667,7 +9767,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="3">
         <f t="shared" si="5"/>
         <v>13</v>
@@ -9723,7 +9823,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="3">
         <f t="shared" si="5"/>
         <v>14</v>
@@ -9777,7 +9877,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="3">
         <f t="shared" si="5"/>
         <v>15</v>
@@ -9831,7 +9931,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3">
         <f t="shared" si="5"/>
         <v>16</v>
@@ -9885,7 +9985,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="69" spans="1:23" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:23" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4">
         <f t="shared" si="5"/>
         <v>17</v>
@@ -9938,7 +10038,7 @@
       </c>
       <c r="W69" s="22"/>
     </row>
-    <row r="70" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="3">
         <f t="shared" si="5"/>
         <v>18</v>
@@ -9990,7 +10090,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="71" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="3">
         <f t="shared" si="5"/>
         <v>19</v>
@@ -10042,7 +10142,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="72" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="3">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -10094,7 +10194,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="73" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
         <f t="shared" si="5"/>
         <v>21</v>
@@ -10146,7 +10246,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="74" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="3">
         <f t="shared" si="5"/>
         <v>22</v>
@@ -10198,7 +10298,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="75" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="3">
         <f t="shared" si="5"/>
         <v>23</v>
@@ -10250,7 +10350,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="76" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3">
         <f t="shared" si="5"/>
         <v>24</v>
@@ -10302,7 +10402,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="77" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="3">
         <f t="shared" ref="A77:A78" si="10">+A76+1</f>
         <v>25</v>
@@ -10354,7 +10454,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="78" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="3">
         <f t="shared" si="10"/>
         <v>26</v>
@@ -10406,22 +10506,22 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="79" spans="1:23" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:23" collapsed="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="3">
         <v>1</v>
       </c>
@@ -10433,7 +10533,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="3">
         <f>+A83+1</f>
         <v>2</v>
@@ -10446,7 +10546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="3">
         <f t="shared" ref="A85:A108" si="11">+A84+1</f>
         <v>3</v>
@@ -10459,7 +10559,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3">
         <f t="shared" si="11"/>
         <v>4</v>
@@ -10472,7 +10572,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="3">
         <f t="shared" si="11"/>
         <v>5</v>
@@ -10485,7 +10585,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="3">
         <f t="shared" si="11"/>
         <v>6</v>
@@ -10498,7 +10598,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="3">
         <f t="shared" si="11"/>
         <v>7</v>
@@ -10511,7 +10611,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="3">
         <f t="shared" si="11"/>
         <v>8</v>
@@ -10524,7 +10624,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="3">
         <f t="shared" si="11"/>
         <v>9</v>
@@ -10537,7 +10637,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="3">
         <f t="shared" si="11"/>
         <v>10</v>
@@ -10550,7 +10650,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="3">
         <f t="shared" si="11"/>
         <v>11</v>
@@ -10560,7 +10660,7 @@
         <v>/* 11 */        "",</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="3">
         <f t="shared" si="11"/>
         <v>12</v>
@@ -10570,7 +10670,7 @@
         <v>/* 12 */        "",</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="3">
         <f t="shared" si="11"/>
         <v>13</v>
@@ -10580,7 +10680,7 @@
         <v>/* 13 */        "",</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="3">
         <f t="shared" si="11"/>
         <v>14</v>
@@ -10590,7 +10690,7 @@
         <v>/* 14 */        "",</v>
       </c>
     </row>
-    <row r="97" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="3">
         <f t="shared" si="11"/>
         <v>15</v>
@@ -10600,7 +10700,7 @@
         <v>/* 15 */        "",</v>
       </c>
     </row>
-    <row r="98" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="3">
         <f t="shared" si="11"/>
         <v>16</v>
@@ -10610,7 +10710,7 @@
         <v>/* 16 */        "",</v>
       </c>
     </row>
-    <row r="99" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="3">
         <f t="shared" si="11"/>
         <v>17</v>
@@ -10620,7 +10720,7 @@
         <v>/* 17 */        "",</v>
       </c>
     </row>
-    <row r="100" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="3">
         <f t="shared" si="11"/>
         <v>18</v>
@@ -10630,7 +10730,7 @@
         <v>/* 18 */        "",</v>
       </c>
     </row>
-    <row r="101" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="3">
         <f t="shared" si="11"/>
         <v>19</v>
@@ -10640,7 +10740,7 @@
         <v>/* 19 */        "",</v>
       </c>
     </row>
-    <row r="102" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="3">
         <f t="shared" si="11"/>
         <v>20</v>
@@ -10650,7 +10750,7 @@
         <v>/* 20 */        "",</v>
       </c>
     </row>
-    <row r="103" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="3">
         <f t="shared" si="11"/>
         <v>21</v>
@@ -10660,7 +10760,7 @@
         <v>/* 21 */        "",</v>
       </c>
     </row>
-    <row r="104" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="3">
         <f t="shared" si="11"/>
         <v>22</v>
@@ -10670,7 +10770,7 @@
         <v>/* 22 */        "",</v>
       </c>
     </row>
-    <row r="105" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="3">
         <f t="shared" si="11"/>
         <v>23</v>
@@ -10680,7 +10780,7 @@
         <v>/* 23 */        "",</v>
       </c>
     </row>
-    <row r="106" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="3">
         <f t="shared" si="11"/>
         <v>24</v>
@@ -10690,7 +10790,7 @@
         <v>/* 24 */        "",</v>
       </c>
     </row>
-    <row r="107" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="3">
         <f t="shared" si="11"/>
         <v>25</v>
@@ -10700,7 +10800,7 @@
         <v>/* 25 */        "",</v>
       </c>
     </row>
-    <row r="108" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="3">
         <f t="shared" si="11"/>
         <v>26</v>
@@ -10710,12 +10810,12 @@
         <v>/* 26 */        "",</v>
       </c>
     </row>
-    <row r="109" spans="1:24" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:24" collapsed="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="2" t="s">
         <v>56</v>
       </c>
@@ -10757,7 +10857,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="3">
         <v>1</v>
       </c>
@@ -10825,7 +10925,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="3">
         <f>+A112+1</f>
         <v>2</v>
@@ -10894,7 +10994,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="3">
         <f t="shared" ref="A114:A137" si="20">+A113+1</f>
         <v>3</v>
@@ -10967,7 +11067,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="3">
         <f t="shared" si="20"/>
         <v>4</v>
@@ -11040,7 +11140,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="3">
         <f t="shared" si="20"/>
         <v>5</v>
@@ -11115,7 +11215,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="3">
         <f t="shared" si="20"/>
         <v>6</v>
@@ -11194,7 +11294,7 @@
         <v>")],</v>
       </c>
     </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="3">
         <f t="shared" si="20"/>
         <v>7</v>
@@ -11269,7 +11369,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="3">
         <f t="shared" si="20"/>
         <v>8</v>
@@ -11342,7 +11442,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="3">
         <f t="shared" si="20"/>
         <v>9</v>
@@ -11415,7 +11515,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3">
         <f t="shared" si="20"/>
         <v>10</v>
@@ -11488,7 +11588,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="122" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="3">
         <f t="shared" si="20"/>
         <v>11</v>
@@ -11561,7 +11661,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="123" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3">
         <f t="shared" si="20"/>
         <v>12</v>
@@ -11636,7 +11736,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="124" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="3">
         <f t="shared" si="20"/>
         <v>13</v>
@@ -11713,7 +11813,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="125" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="3">
         <f t="shared" si="20"/>
         <v>14</v>
@@ -11782,7 +11882,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="126" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="3">
         <f t="shared" si="20"/>
         <v>15</v>
@@ -11853,7 +11953,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="127" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="3">
         <f t="shared" si="20"/>
         <v>16</v>
@@ -11928,7 +12028,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="128" spans="1:24" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:24" s="6" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="4">
         <f t="shared" si="20"/>
         <v>17</v>
@@ -11999,7 +12099,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="129" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3">
         <f t="shared" si="20"/>
         <v>18</v>
@@ -12070,7 +12170,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="130" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="3">
         <f t="shared" si="20"/>
         <v>19</v>
@@ -12141,7 +12241,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="131" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="3">
         <f t="shared" si="20"/>
         <v>20</v>
@@ -12212,7 +12312,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="132" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="3">
         <f t="shared" si="20"/>
         <v>21</v>
@@ -12283,7 +12383,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="133" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="3">
         <f t="shared" si="20"/>
         <v>22</v>
@@ -12354,7 +12454,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="134" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="3">
         <f t="shared" si="20"/>
         <v>23</v>
@@ -12425,7 +12525,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="135" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="3">
         <f t="shared" si="20"/>
         <v>24</v>
@@ -12496,7 +12596,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="136" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="3">
         <f t="shared" si="20"/>
         <v>25</v>
@@ -12567,7 +12667,7 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="137" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:24" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="3">
         <f t="shared" si="20"/>
         <v>26</v>
@@ -12638,27 +12738,27 @@
         <v>)],</v>
       </c>
     </row>
-    <row r="138" spans="1:24" collapsed="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:24" collapsed="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="2" t="s">
         <v>61</v>
       </c>
@@ -12667,4 +12767,4130 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6184D5DC-4A14-45C7-9EBF-4F4E25DCF420}">
+  <dimension ref="A1:X144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="G59" sqref="G59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.5" outlineLevelRow="1" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="3"/>
+    <col min="2" max="2" width="61.54296875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="1" t="str">
+        <f>_xlfn.CONCAT("const NOMBREDELCANTO = ","""",C12,"""",";")</f>
+        <v>const NOMBREDELCANTO = "AMO AL SEÑOR";</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="2" t="str">
+        <f>_xlfn.CONCAT("      salmo: ","""",C17,"""",";")</f>
+        <v xml:space="preserve">      salmo: "Salmo 116 (114-115)";</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="2" t="str">
+        <f>_xlfn.CONCAT("      dbnos: ","""",C18,"""",";")</f>
+        <v xml:space="preserve">      dbnos: "18";</v>
+      </c>
+      <c r="C18" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f>_xlfn.CONCAT("/* ",A23," */", "        ","""", C23,"""",",")</f>
+        <v>/* 1 */        "Amo al Señor, porque escucha",</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3">
+        <f>+A23+1</f>
+        <v>2</v>
+      </c>
+      <c r="B24" s="2" t="str">
+        <f>_xlfn.CONCAT("/* ",A24," */", "        ","""", C24,"""",",")</f>
+        <v>/* 2 */        "mi voz suplicante",</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
+        <f t="shared" ref="A25:A48" si="0">+A24+1</f>
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f>_xlfn.CONCAT("/* ",A25," */", "        ","""", C25,"""",",")</f>
+        <v>/* 3 */        "inclina hacia mí su oído",</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B26" s="2" t="str">
+        <f t="shared" ref="B26:B48" si="1">_xlfn.CONCAT("/* ",A26," */", "        ","""", C26,"""",",")</f>
+        <v>/* 4 */        "el día en que lo invoco.",</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 5 */        "Me envolvían redes de muerte,",</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 6 */        "me alcanzaron los lazos del infierno;",</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 7 */        "me rodeaban tristeza y angustia,",</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 8 */        "invoqué el nombre del Señor:",</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 9 */        "«¡Te ruego, Señor, sálvame!»",</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B32" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 10 */        "¡Tenía fe, aun cuando dije:",</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B33" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 11 */        "«Yo soy un desgraciado»!,",</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 12 */        "y pensaba lleno de angustia:",</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 13 */        "todo hombre es falso».",</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B36" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 14 */        "¿Cómo pagaré al Señor",</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 15 */        "todo el bien que me ha hecho?",</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B38" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 16 */        "Alzaré la copa de la bendición",</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 17 */        "e invocaré el nombre del Señor.",</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B40" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 18 */        "",</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 19 */        "",</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B42" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 20 */        "",</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 21 */        "",</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B44" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 22 */        "",</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 23 */        "",</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B46" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 24 */        "",</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 25 */        "",</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B48" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>/* 26 */        "",</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" collapsed="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="E53" s="11"/>
+      <c r="H53" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="3">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="str">
+        <f>_xlfn.CONCAT("/* ",A54,"*/      ",D54:Q54)</f>
+        <v>/* 1*/      [ac("La", "cp1","m"), ac("La","cp43","7")],</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G54" s="12">
+        <v>1</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J54" s="3" t="str">
+        <f t="shared" ref="J54:J62" si="2">IF(K54="","""","""), ac(""")</f>
+        <v>"), ac("</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="7" t="str">
+        <f>IF(K54="","",""",""")</f>
+        <v>","</v>
+      </c>
+      <c r="M54" s="7" t="str">
+        <f>IF(K54="","","cp")</f>
+        <v>cp</v>
+      </c>
+      <c r="N54" s="15">
+        <v>43</v>
+      </c>
+      <c r="O54" s="7" t="str">
+        <f>IF(K54="","",""",""")</f>
+        <v>","</v>
+      </c>
+      <c r="P54" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q54" s="7" t="str">
+        <f>IF(K54="",")],",""")],")</f>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="3">
+        <f>+A54+1</f>
+        <v>2</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <f t="shared" ref="B55:B79" si="3">_xlfn.CONCAT("/* ",A55,"*/      ",D55:Q55)</f>
+        <v>/* 2*/      [ac("", "cp500","")],</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G55" s="13">
+        <v>500</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="13"/>
+      <c r="J55" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>"</v>
+      </c>
+      <c r="K55" s="16"/>
+      <c r="L55" s="8" t="str">
+        <f>IF(K55="","",""",""")</f>
+        <v/>
+      </c>
+      <c r="M55" s="8" t="str">
+        <f>IF(K55="","","cp")</f>
+        <v/>
+      </c>
+      <c r="N55" s="16"/>
+      <c r="O55" s="8" t="str">
+        <f>IF(K55="","",""",""")</f>
+        <v/>
+      </c>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="8" t="str">
+        <f t="shared" ref="Q55:Q79" si="4">IF(K55="",")],",""")],")</f>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="3">
+        <f t="shared" ref="A56:A79" si="5">+A55+1</f>
+        <v>3</v>
+      </c>
+      <c r="B56" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 3*/      [ac("Re", "cp42","m9")],</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G56" s="12">
+        <v>42</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J56" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>"</v>
+      </c>
+      <c r="K56" s="15"/>
+      <c r="L56" s="7" t="str">
+        <f t="shared" ref="L56:L79" si="6">IF(K56="","",""",""")</f>
+        <v/>
+      </c>
+      <c r="M56" s="7" t="str">
+        <f t="shared" ref="M56:M79" si="7">IF(K56="","","cp")</f>
+        <v/>
+      </c>
+      <c r="N56" s="15"/>
+      <c r="O56" s="7" t="str">
+        <f t="shared" ref="O56:O79" si="8">IF(K56="","",""",""")</f>
+        <v/>
+      </c>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="3">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="B57" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 4*/      [ac("Fa", "cp5","maj7"), ac("Mi","cp61","")],</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="13">
+        <v>5</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J57" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K57" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M57" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N57" s="16">
+        <v>61</v>
+      </c>
+      <c r="O57" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="3">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="B58" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 5*/      [ac("Re", "cp0",""), ac("Fa","cp49","")],</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G58" s="12">
+        <v>0</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="12"/>
+      <c r="J58" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L58" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M58" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N58" s="15">
+        <v>49</v>
+      </c>
+      <c r="O58" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 6*/      [ac("Mi", "cp37","")],</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G59" s="13">
+        <v>37</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="13"/>
+      <c r="J59" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>"</v>
+      </c>
+      <c r="K59" s="16"/>
+      <c r="L59" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M59" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N59" s="16"/>
+      <c r="O59" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="3">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="B60" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 7*/      [ac("Sol", "cp18",""), ac("Mi","cp57","m6")],</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="12">
+        <v>18</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="12"/>
+      <c r="J60" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M60" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N60" s="15">
+        <v>57</v>
+      </c>
+      <c r="O60" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P60" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q60" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="3">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 8*/      [ac("La", "cp13","7")],</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" s="13">
+        <v>13</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="13">
+        <v>7</v>
+      </c>
+      <c r="J61" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>"</v>
+      </c>
+      <c r="K61" s="16"/>
+      <c r="L61" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M61" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N61" s="16"/>
+      <c r="O61" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="3">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="B62" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 9*/      [ac("Re", "cp43","")],</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="12">
+        <v>43</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I62" s="12"/>
+      <c r="J62" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>"</v>
+      </c>
+      <c r="K62" s="15"/>
+      <c r="L62" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M62" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N62" s="15"/>
+      <c r="O62" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 10*/      [ac("Re", "cp1",""), ac("Fa#","cp50","m")],</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G63" s="13">
+        <v>1</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I63" s="13"/>
+      <c r="J63" s="3" t="str">
+        <f>IF(K63="","""","""), ac(""")</f>
+        <v>"), ac("</v>
+      </c>
+      <c r="K63" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L63" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M63" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N63" s="16">
+        <v>50</v>
+      </c>
+      <c r="O63" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P63" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q63" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="3">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="B64" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 11*/      [ac("", "cp500","")],</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G64" s="12">
+        <v>500</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I64" s="12"/>
+      <c r="J64" s="3" t="str">
+        <f t="shared" ref="J64:J79" si="9">IF(K64="","""","""), ac(""")</f>
+        <v>"</v>
+      </c>
+      <c r="K64" s="15"/>
+      <c r="L64" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M64" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N64" s="15"/>
+      <c r="O64" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="3">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="B65" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 12*/      [ac("Sol", "cp48","")],</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G65" s="13">
+        <v>48</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" s="13"/>
+      <c r="J65" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="K65" s="16"/>
+      <c r="L65" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M65" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N65" s="16"/>
+      <c r="O65" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="3">
+        <f t="shared" si="5"/>
+        <v>13</v>
+      </c>
+      <c r="B66" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 13*/      [ac("Mi", "cp1","m6"), ac("La","cp35","7")],</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G66" s="12">
+        <v>1</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J66" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L66" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M66" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N66" s="15">
+        <v>35</v>
+      </c>
+      <c r="O66" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P66" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q66" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="3">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 14*/      [ac("Re", "cp1","")],</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" s="13">
+        <v>1</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I67" s="13"/>
+      <c r="J67" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="K67" s="16"/>
+      <c r="L67" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M67" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N67" s="16"/>
+      <c r="O67" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="3">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 15*/      [ac("Fa#", "cp54","m")],</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G68" s="12">
+        <v>54</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J68" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="K68" s="15"/>
+      <c r="L68" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M68" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N68" s="15"/>
+      <c r="O68" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="3">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 16*/      [ac("Sol", "cp10",""), ac("Mi","cp56","m6")],</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G69" s="13">
+        <v>10</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="13"/>
+      <c r="J69" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K69" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L69" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M69" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N69" s="16">
+        <v>56</v>
+      </c>
+      <c r="O69" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P69" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q69" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="4">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="B70" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 17*/      [ac("La", "cp17","7")],</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E70" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G70" s="12">
+        <v>17</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I70" s="12">
+        <v>7</v>
+      </c>
+      <c r="J70" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"</v>
+      </c>
+      <c r="K70" s="15"/>
+      <c r="L70" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="M70" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="N70" s="15"/>
+      <c r="O70" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P70" s="15"/>
+      <c r="Q70" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="3">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 18*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G71" s="13">
+        <v>1</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I71" s="13"/>
+      <c r="J71" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K71" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L71" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M71" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N71" s="16"/>
+      <c r="O71" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="3">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="B72" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 19*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G72" s="12">
+        <v>1</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I72" s="12"/>
+      <c r="J72" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L72" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M72" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N72" s="15"/>
+      <c r="O72" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="B73" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 20*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G73" s="13">
+        <v>1</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K73" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L73" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M73" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N73" s="16"/>
+      <c r="O73" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P73" s="16"/>
+      <c r="Q73" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="3">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="B74" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 21*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G74" s="12">
+        <v>1</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="12"/>
+      <c r="J74" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L74" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M74" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N74" s="15"/>
+      <c r="O74" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="3">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="B75" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 22*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G75" s="13">
+        <v>1</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" s="13"/>
+      <c r="J75" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K75" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L75" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M75" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N75" s="16"/>
+      <c r="O75" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P75" s="16"/>
+      <c r="Q75" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="3">
+        <f t="shared" si="5"/>
+        <v>23</v>
+      </c>
+      <c r="B76" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 23*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G76" s="12">
+        <v>1</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I76" s="12"/>
+      <c r="J76" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K76" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L76" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M76" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N76" s="15"/>
+      <c r="O76" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P76" s="15"/>
+      <c r="Q76" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="3">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="B77" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 24*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G77" s="13">
+        <v>1</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" s="13"/>
+      <c r="J77" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K77" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L77" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M77" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N77" s="16"/>
+      <c r="O77" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P77" s="16"/>
+      <c r="Q77" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="3">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="B78" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 25*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G78" s="12">
+        <v>1</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" s="12"/>
+      <c r="J78" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K78" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L78" s="7" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M78" s="7" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N78" s="15"/>
+      <c r="O78" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="3">
+        <f t="shared" si="5"/>
+        <v>26</v>
+      </c>
+      <c r="B79" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>/* 26*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G79" s="13">
+        <v>1</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I79" s="13"/>
+      <c r="J79" s="3" t="str">
+        <f t="shared" si="9"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K79" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L79" s="8" t="str">
+        <f t="shared" si="6"/>
+        <v>","</v>
+      </c>
+      <c r="M79" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>cp</v>
+      </c>
+      <c r="N79" s="16"/>
+      <c r="O79" s="8" t="str">
+        <f t="shared" si="8"/>
+        <v>","</v>
+      </c>
+      <c r="P79" s="16"/>
+      <c r="Q79" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="3">
+        <v>1</v>
+      </c>
+      <c r="B84" s="2" t="str">
+        <f>_xlfn.CONCAT("/* ",A84," */", "        ","""", C84,"""",",")</f>
+        <v>/* 1 */        "RECOBRA, ALMA MÍA, TU REPOSO,",</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="3">
+        <f>+A84+1</f>
+        <v>2</v>
+      </c>
+      <c r="B85" s="2" t="str">
+        <f>_xlfn.CONCAT("/* ",A85," */", "        ","""", C85,"""",",")</f>
+        <v>/* 2 */        "PORQUE EL SEÑOR FUE BUENO CONTIGO.",</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="3">
+        <f t="shared" ref="A86:A109" si="10">+A85+1</f>
+        <v>3</v>
+      </c>
+      <c r="B86" s="2" t="str">
+        <f>_xlfn.CONCAT("/* ",A86," */", "        ","""", C86,"""",",")</f>
+        <v>/* 3 */        "ÉL TE HA SALVADO DE LA MUERTE,",</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="3">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="B87" s="2" t="str">
+        <f t="shared" ref="B87:B109" si="11">_xlfn.CONCAT("/* ",A87," */", "        ","""", C87,"""",",")</f>
+        <v>/* 4 */        "HA PRESERVADO TUS PIES DE LA CAÍDA.",</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="3">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="B88" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 5 */        "ÉL TE HA SALVADO DE LA MUERTE,",</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="3">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="B89" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 6 */        "HA PRESERVADO TUS PIES DE LA CAÍDA.",</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="3">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="B90" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 7 */        "RECOBRA, ALMA MÍA, TU REPOSO,",</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="3">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="B91" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 8 */        "PORQUE EL SEÑOR FUE BUENO CONTIGO.",</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="3">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="B92" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 9 */        "ÉL TE HA SALVADO DE LA MUERTE,",</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="3">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="B93" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 10 */        "HA PRESERVADO TUS PIES DE LA CAÍDA.",</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="3">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="B94" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 11 */        "ÉL TE HA SALVADO DE LA MUERTE,",</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="3">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="B95" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 12 */        "HA PRESERVADO TUS PIES DE LA CAÍDA."",</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="3">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="B96" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 13 */        "",</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="3">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="B97" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 14 */        "",</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="3">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="B98" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 15 */        "",</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="3">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="B99" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 16 */        "",</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="3">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="B100" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 17 */        "",</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="3">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="B101" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 18 */        "",</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="3">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="B102" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 19 */        "",</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="3">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="B103" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 20 */        "",</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="3">
+        <f t="shared" si="10"/>
+        <v>21</v>
+      </c>
+      <c r="B104" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 21 */        "",</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="3">
+        <f t="shared" si="10"/>
+        <v>22</v>
+      </c>
+      <c r="B105" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 22 */        "",</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="3">
+        <f t="shared" si="10"/>
+        <v>23</v>
+      </c>
+      <c r="B106" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 23 */        "",</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="3">
+        <f t="shared" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="B107" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 24 */        "",</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="3">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="B108" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 25 */        "",</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" hidden="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="3">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="B109" s="2" t="str">
+        <f t="shared" si="11"/>
+        <v>/* 26 */        "",</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" collapsed="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" t="s">
+        <v>62</v>
+      </c>
+      <c r="F112" t="s">
+        <v>42</v>
+      </c>
+      <c r="G112" t="s">
+        <v>63</v>
+      </c>
+      <c r="H112"/>
+      <c r="I112" t="s">
+        <v>35</v>
+      </c>
+      <c r="K112" t="s">
+        <v>62</v>
+      </c>
+      <c r="M112" t="s">
+        <v>42</v>
+      </c>
+      <c r="N112" t="s">
+        <v>63</v>
+      </c>
+      <c r="P112" t="s">
+        <v>35</v>
+      </c>
+      <c r="R112" t="s">
+        <v>62</v>
+      </c>
+      <c r="T112" t="s">
+        <v>42</v>
+      </c>
+      <c r="U112" t="s">
+        <v>63</v>
+      </c>
+      <c r="W112" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="3">
+        <v>1</v>
+      </c>
+      <c r="B113" s="2" t="str">
+        <f>_xlfn.CONCAT("/* ",A113,"*/      ",D113:X113)</f>
+        <v>/* 1*/      [ac("Re", "cp1","m"), ac("Fa#","cp65","m")],</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G113" s="12">
+        <v>1</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I113" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J113" s="3" t="str">
+        <f t="shared" ref="J113:J121" si="12">IF(K113="","""","""), ac(""")</f>
+        <v>"), ac("</v>
+      </c>
+      <c r="K113" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L113" s="7" t="str">
+        <f>IF(K113="","",""",""")</f>
+        <v>","</v>
+      </c>
+      <c r="M113" s="7" t="str">
+        <f>IF(K113="","","cp")</f>
+        <v>cp</v>
+      </c>
+      <c r="N113" s="15">
+        <v>65</v>
+      </c>
+      <c r="O113" s="7" t="str">
+        <f>IF(K113="","",""",""")</f>
+        <v>","</v>
+      </c>
+      <c r="P113" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q113" s="3" t="str">
+        <f t="shared" ref="Q113:Q138" si="13">IF(R113="","""","""), ac(""")</f>
+        <v>"</v>
+      </c>
+      <c r="R113" s="17"/>
+      <c r="S113" s="7" t="str">
+        <f>IF(R113="","",""",""")</f>
+        <v/>
+      </c>
+      <c r="T113" s="7" t="str">
+        <f>IF(R113="","","cp")</f>
+        <v/>
+      </c>
+      <c r="U113" s="17"/>
+      <c r="V113" s="7" t="str">
+        <f>IF(R113="","",""",""")</f>
+        <v/>
+      </c>
+      <c r="W113" s="15"/>
+      <c r="X113" s="7" t="str">
+        <f>IF(R113="",")],",""")],")</f>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="3">
+        <f>+A113+1</f>
+        <v>2</v>
+      </c>
+      <c r="B114" s="2" t="str">
+        <f t="shared" ref="B114:B138" si="14">_xlfn.CONCAT("/* ",A114,"*/      ",D114:X114)</f>
+        <v>/* 2*/      [ac("Sol", "cp1",""), ac("Mi","cp45","m6"), ac("Fa#","cp79","7")],</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G114" s="13">
+        <v>1</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I114" s="13"/>
+      <c r="J114" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K114" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L114" s="8" t="str">
+        <f>IF(K114="","",""",""")</f>
+        <v>","</v>
+      </c>
+      <c r="M114" s="8" t="str">
+        <f>IF(K114="","","cp")</f>
+        <v>cp</v>
+      </c>
+      <c r="N114" s="16">
+        <v>45</v>
+      </c>
+      <c r="O114" s="8" t="str">
+        <f>IF(K114="","",""",""")</f>
+        <v>","</v>
+      </c>
+      <c r="P114" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q114" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="R114" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S114" s="7" t="str">
+        <f t="shared" ref="S114:S138" si="15">IF(R114="","",""",""")</f>
+        <v>","</v>
+      </c>
+      <c r="T114" s="7" t="str">
+        <f t="shared" ref="T114:T138" si="16">IF(R114="","","cp")</f>
+        <v>cp</v>
+      </c>
+      <c r="U114" s="17">
+        <v>79</v>
+      </c>
+      <c r="V114" s="7" t="str">
+        <f t="shared" ref="V114:V138" si="17">IF(R114="","",""",""")</f>
+        <v>","</v>
+      </c>
+      <c r="W114" s="15">
+        <v>7</v>
+      </c>
+      <c r="X114" s="7" t="str">
+        <f t="shared" ref="X114:X138" si="18">IF(R114="",")],",""")],")</f>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="3">
+        <f t="shared" ref="A115:A138" si="19">+A114+1</f>
+        <v>3</v>
+      </c>
+      <c r="B115" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 3*/      [ac("Sol", "cp1","m6"), ac("Re","cp62","")],</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G115" s="12">
+        <v>1</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I115" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J115" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K115" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L115" s="7" t="str">
+        <f t="shared" ref="L115:L138" si="20">IF(K115="","",""",""")</f>
+        <v>","</v>
+      </c>
+      <c r="M115" s="7" t="str">
+        <f t="shared" ref="M115:M138" si="21">IF(K115="","","cp")</f>
+        <v>cp</v>
+      </c>
+      <c r="N115" s="15">
+        <v>62</v>
+      </c>
+      <c r="O115" s="7" t="str">
+        <f t="shared" ref="O115:O138" si="22">IF(K115="","",""",""")</f>
+        <v>","</v>
+      </c>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R115" s="17"/>
+      <c r="S115" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T115" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U115" s="17"/>
+      <c r="V115" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W115" s="15"/>
+      <c r="X115" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="3">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="B116" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 4*/      [ac("La", "cp52",""), ac("Re","cp78","")],</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G116" s="13">
+        <v>52</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I116" s="13"/>
+      <c r="J116" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K116" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L116" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M116" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N116" s="16">
+        <v>78</v>
+      </c>
+      <c r="O116" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P116" s="16"/>
+      <c r="Q116" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R116" s="17"/>
+      <c r="S116" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T116" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U116" s="17"/>
+      <c r="V116" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W116" s="15"/>
+      <c r="X116" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="3">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="B117" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 5*/      [ac("Sol", "cp1",""), ac("Re","cp62","")],</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G117" s="12">
+        <v>1</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I117" s="12"/>
+      <c r="J117" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K117" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L117" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M117" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N117" s="15">
+        <v>62</v>
+      </c>
+      <c r="O117" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R117" s="17"/>
+      <c r="S117" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T117" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U117" s="17"/>
+      <c r="V117" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W117" s="15"/>
+      <c r="X117" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="3">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="B118" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 6*/      [ac("La", "cp52","7"), ac("Re","cp78","")],</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G118" s="13">
+        <v>52</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I118" s="13">
+        <v>7</v>
+      </c>
+      <c r="J118" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K118" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L118" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M118" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N118" s="16">
+        <v>78</v>
+      </c>
+      <c r="O118" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P118" s="16"/>
+      <c r="Q118" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R118" s="17"/>
+      <c r="S118" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T118" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U118" s="17"/>
+      <c r="V118" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W118" s="15"/>
+      <c r="X118" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="3">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="B119" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 7*/      [ac("Re", "cp1",""), ac("Fa#","cp65","m")],</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G119" s="12">
+        <v>1</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I119" s="12"/>
+      <c r="J119" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K119" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L119" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M119" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N119" s="15">
+        <v>65</v>
+      </c>
+      <c r="O119" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P119" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q119" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R119" s="17"/>
+      <c r="S119" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T119" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U119" s="17"/>
+      <c r="V119" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W119" s="15"/>
+      <c r="X119" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="3">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="B120" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 8*/      [ac("Sol", "cp1","7"), ac("Mi","cp45","m6"), ac("Fa#","cp79","7")],</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G120" s="13">
+        <v>1</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" s="13">
+        <v>7</v>
+      </c>
+      <c r="J120" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K120" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L120" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M120" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N120" s="16">
+        <v>45</v>
+      </c>
+      <c r="O120" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P120" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q120" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="R120" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="S120" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v>","</v>
+      </c>
+      <c r="T120" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v>cp</v>
+      </c>
+      <c r="U120" s="17">
+        <v>79</v>
+      </c>
+      <c r="V120" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v>","</v>
+      </c>
+      <c r="W120" s="15">
+        <v>7</v>
+      </c>
+      <c r="X120" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>")],</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="3">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="B121" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 9*/      [ac("Sol", "cp1",""), ac("Re","cp62","")],</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G121" s="12">
+        <v>1</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I121" s="12"/>
+      <c r="J121" s="3" t="str">
+        <f t="shared" si="12"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K121" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L121" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M121" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N121" s="15">
+        <v>62</v>
+      </c>
+      <c r="O121" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P121" s="15"/>
+      <c r="Q121" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R121" s="17"/>
+      <c r="S121" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T121" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U121" s="17"/>
+      <c r="V121" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W121" s="15"/>
+      <c r="X121" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="3">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="B122" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 10*/      [ac("La", "cp52",""), ac("Re","cp78","")],</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G122" s="13">
+        <v>52</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I122" s="13"/>
+      <c r="J122" s="3" t="str">
+        <f>IF(K122="","""","""), ac(""")</f>
+        <v>"), ac("</v>
+      </c>
+      <c r="K122" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L122" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M122" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N122" s="16">
+        <v>78</v>
+      </c>
+      <c r="O122" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P122" s="16"/>
+      <c r="Q122" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R122" s="17"/>
+      <c r="S122" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T122" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U122" s="17"/>
+      <c r="V122" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W122" s="15"/>
+      <c r="X122" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="3">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="B123" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 11*/      [ac("Sol", "cp1",""), ac("Re","cp62","")],</v>
+      </c>
+      <c r="C123" s="2"/>
+      <c r="D123" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G123" s="12">
+        <v>1</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I123" s="12"/>
+      <c r="J123" s="3" t="str">
+        <f t="shared" ref="J123:J138" si="23">IF(K123="","""","""), ac(""")</f>
+        <v>"), ac("</v>
+      </c>
+      <c r="K123" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L123" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M123" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N123" s="15">
+        <v>62</v>
+      </c>
+      <c r="O123" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P123" s="15"/>
+      <c r="Q123" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R123" s="17"/>
+      <c r="S123" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T123" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U123" s="17"/>
+      <c r="V123" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W123" s="15"/>
+      <c r="X123" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="3">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="B124" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 12*/      [ac("La", "cp52","7"), ac("Re","cp78","")],</v>
+      </c>
+      <c r="C124" s="2"/>
+      <c r="D124" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G124" s="13">
+        <v>52</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I124" s="13">
+        <v>7</v>
+      </c>
+      <c r="J124" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K124" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L124" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M124" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N124" s="16">
+        <v>78</v>
+      </c>
+      <c r="O124" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P124" s="16"/>
+      <c r="Q124" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R124" s="17"/>
+      <c r="S124" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T124" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U124" s="17"/>
+      <c r="V124" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W124" s="15"/>
+      <c r="X124" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="3">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="B125" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 13*/      [ac("Mi", "cp1","m6"), ac("La","cp35","7")],</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G125" s="12">
+        <v>1</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I125" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J125" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K125" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L125" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M125" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N125" s="15">
+        <v>35</v>
+      </c>
+      <c r="O125" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P125" s="15">
+        <v>7</v>
+      </c>
+      <c r="Q125" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R125" s="17"/>
+      <c r="S125" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T125" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U125" s="17"/>
+      <c r="V125" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W125" s="15"/>
+      <c r="X125" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="3">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="B126" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 14*/      [ac("Re", "cp1",""")],</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G126" s="13">
+        <v>1</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I126" s="13"/>
+      <c r="J126" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"</v>
+      </c>
+      <c r="K126" s="16"/>
+      <c r="L126" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="M126" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="N126" s="16"/>
+      <c r="O126" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="P126" s="16"/>
+      <c r="Q126" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R126" s="17"/>
+      <c r="S126" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T126" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U126" s="17"/>
+      <c r="V126" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W126" s="15"/>
+      <c r="X126" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="3">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="B127" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 15*/      [ac("Fa#", "cp54","m"")],</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G127" s="12">
+        <v>54</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I127" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J127" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"</v>
+      </c>
+      <c r="K127" s="15"/>
+      <c r="L127" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="M127" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="N127" s="15"/>
+      <c r="O127" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="P127" s="15"/>
+      <c r="Q127" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R127" s="17"/>
+      <c r="S127" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T127" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U127" s="17"/>
+      <c r="V127" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W127" s="15"/>
+      <c r="X127" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="3">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="B128" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 16*/      [ac("Sol", "cp10",""), ac("Mi","cp56","m6")],</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G128" s="13">
+        <v>10</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I128" s="13"/>
+      <c r="J128" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K128" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="L128" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M128" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N128" s="16">
+        <v>56</v>
+      </c>
+      <c r="O128" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P128" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q128" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R128" s="17"/>
+      <c r="S128" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T128" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U128" s="17"/>
+      <c r="V128" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W128" s="15"/>
+      <c r="X128" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" s="6" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="4">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="B129" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 17*/      [ac("La", "cp17","7"")],</v>
+      </c>
+      <c r="C129" s="5"/>
+      <c r="D129" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E129" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129" s="12">
+        <v>17</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I129" s="12">
+        <v>7</v>
+      </c>
+      <c r="J129" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"</v>
+      </c>
+      <c r="K129" s="15"/>
+      <c r="L129" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="M129" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="N129" s="15"/>
+      <c r="O129" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="P129" s="15"/>
+      <c r="Q129" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R129" s="17"/>
+      <c r="S129" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T129" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U129" s="17"/>
+      <c r="V129" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W129" s="15"/>
+      <c r="X129" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="3">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="B130" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 18*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" s="13">
+        <v>1</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I130" s="13"/>
+      <c r="J130" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K130" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L130" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M130" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N130" s="16"/>
+      <c r="O130" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P130" s="16"/>
+      <c r="Q130" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R130" s="17"/>
+      <c r="S130" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T130" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U130" s="17"/>
+      <c r="V130" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W130" s="15"/>
+      <c r="X130" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="3">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="B131" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 19*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C131" s="2"/>
+      <c r="D131" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G131" s="12">
+        <v>1</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I131" s="12"/>
+      <c r="J131" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K131" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L131" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M131" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N131" s="15"/>
+      <c r="O131" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P131" s="15"/>
+      <c r="Q131" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R131" s="17"/>
+      <c r="S131" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T131" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U131" s="17"/>
+      <c r="V131" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W131" s="15"/>
+      <c r="X131" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="3">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="B132" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 20*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G132" s="13">
+        <v>1</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I132" s="13"/>
+      <c r="J132" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K132" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L132" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M132" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N132" s="16"/>
+      <c r="O132" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P132" s="16"/>
+      <c r="Q132" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R132" s="17"/>
+      <c r="S132" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T132" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U132" s="17"/>
+      <c r="V132" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W132" s="15"/>
+      <c r="X132" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="3">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="B133" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 21*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G133" s="12">
+        <v>1</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I133" s="12"/>
+      <c r="J133" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K133" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L133" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M133" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N133" s="15"/>
+      <c r="O133" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P133" s="15"/>
+      <c r="Q133" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R133" s="17"/>
+      <c r="S133" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T133" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U133" s="17"/>
+      <c r="V133" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W133" s="15"/>
+      <c r="X133" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="3">
+        <f t="shared" si="19"/>
+        <v>22</v>
+      </c>
+      <c r="B134" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 22*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G134" s="13">
+        <v>1</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I134" s="13"/>
+      <c r="J134" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K134" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L134" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M134" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N134" s="16"/>
+      <c r="O134" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P134" s="16"/>
+      <c r="Q134" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R134" s="17"/>
+      <c r="S134" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T134" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U134" s="17"/>
+      <c r="V134" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W134" s="15"/>
+      <c r="X134" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="3">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+      <c r="B135" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 23*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C135" s="2"/>
+      <c r="D135" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E135" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F135" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G135" s="12">
+        <v>1</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I135" s="12"/>
+      <c r="J135" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K135" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L135" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M135" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N135" s="15"/>
+      <c r="O135" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P135" s="15"/>
+      <c r="Q135" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R135" s="17"/>
+      <c r="S135" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T135" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U135" s="17"/>
+      <c r="V135" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W135" s="15"/>
+      <c r="X135" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="3">
+        <f t="shared" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="B136" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 24*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C136" s="2"/>
+      <c r="D136" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G136" s="13">
+        <v>1</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I136" s="13"/>
+      <c r="J136" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K136" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L136" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M136" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N136" s="16"/>
+      <c r="O136" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P136" s="16"/>
+      <c r="Q136" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R136" s="17"/>
+      <c r="S136" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T136" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U136" s="17"/>
+      <c r="V136" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W136" s="15"/>
+      <c r="X136" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="3">
+        <f t="shared" si="19"/>
+        <v>25</v>
+      </c>
+      <c r="B137" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 25*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C137" s="2"/>
+      <c r="D137" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E137" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G137" s="12">
+        <v>1</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I137" s="12"/>
+      <c r="J137" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K137" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="L137" s="7" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M137" s="7" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N137" s="15"/>
+      <c r="O137" s="7" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P137" s="15"/>
+      <c r="Q137" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R137" s="17"/>
+      <c r="S137" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T137" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U137" s="17"/>
+      <c r="V137" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W137" s="15"/>
+      <c r="X137" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" outlineLevel="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="3">
+        <f t="shared" si="19"/>
+        <v>26</v>
+      </c>
+      <c r="B138" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>/* 26*/      [ac("Re", "cp1",""), ac("Fa#","cp","")],</v>
+      </c>
+      <c r="C138" s="2"/>
+      <c r="D138" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G138" s="13">
+        <v>1</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I138" s="13"/>
+      <c r="J138" s="3" t="str">
+        <f t="shared" si="23"/>
+        <v>"), ac("</v>
+      </c>
+      <c r="K138" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L138" s="8" t="str">
+        <f t="shared" si="20"/>
+        <v>","</v>
+      </c>
+      <c r="M138" s="8" t="str">
+        <f t="shared" si="21"/>
+        <v>cp</v>
+      </c>
+      <c r="N138" s="16"/>
+      <c r="O138" s="8" t="str">
+        <f t="shared" si="22"/>
+        <v>","</v>
+      </c>
+      <c r="P138" s="16"/>
+      <c r="Q138" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>"</v>
+      </c>
+      <c r="R138" s="17"/>
+      <c r="S138" s="7" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="T138" s="7" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="U138" s="17"/>
+      <c r="V138" s="7" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
+      <c r="W138" s="15"/>
+      <c r="X138" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>)],</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B140" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B141" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B142" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B143" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+      <c r="B144" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>